--- a/data/raw/PSY_age_of_onset.xlsx
+++ b/data/raw/PSY_age_of_onset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\Git_META\META\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE17DBAA-DBFF-4401-A51F-FDFC8FCD1CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9CA933-F257-4A0C-8B72-1A6DF8B77227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,10 @@
     <t>CHR</t>
   </si>
   <si>
-    <t>Schizotypic</t>
-  </si>
-  <si>
     <t>PTSD</t>
+  </si>
+  <si>
+    <t>Schizotypy</t>
   </si>
 </sst>
 </file>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>15.5</v>

--- a/data/raw/PSY_age_of_onset.xlsx
+++ b/data/raw/PSY_age_of_onset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\Git_META\META\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9CA933-F257-4A0C-8B72-1A6DF8B77227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C38632-8BAC-45E4-A296-D204B3F2A8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>disorder</t>
   </si>
@@ -63,7 +63,25 @@
     <t>PTSD</t>
   </si>
   <si>
-    <t>Schizotypy</t>
+    <t>median</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>p25</t>
+  </si>
+  <si>
+    <t>p75</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>39.9</t>
   </si>
 </sst>
 </file>
@@ -122,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -131,8 +149,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -413,111 +432,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
         <v>15.5</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>